--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R6001e41639104ec8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R1e541b8a0e58495d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R7af0e28e313745c4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R08a574a9515f4ecf">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R17655411e48147a5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R2226ea6a094f4356">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9c69940dbf764cae"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R17d32980dffe41c5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R1e541b8a0e58495d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rfd021aab78ff478c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R08a574a9515f4ecf">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rf2fd873686d045f9">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R2226ea6a094f4356">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0a44f14d3b494fd2">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R17d32980dffe41c5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R122fdc55c0d447e9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rfd021aab78ff478c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Re82350f5a4f44a2e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rf2fd873686d045f9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rb792701a2a444be7">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0a44f14d3b494fd2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0182517ea15c493c">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R122fdc55c0d447e9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf73021e65ebb4237"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Re82350f5a4f44a2e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R96ad8b2abcd94270"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rb792701a2a444be7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Raa9ff17c2bbf488f">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0182517ea15c493c">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0daadf9461784a95">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf73021e65ebb4237"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6fbacff68fa742a7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R96ad8b2abcd94270"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R7f2864f205f84c63"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Raa9ff17c2bbf488f">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R18a1bc0812424c78">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0daadf9461784a95">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R4f4199962c8f49bd">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6fbacff68fa742a7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R352de01f9863455c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R7f2864f205f84c63"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rf22c0cdad201410e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R18a1bc0812424c78">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R19fbbc50b8eb434f">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R4f4199962c8f49bd">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0751d6c8c2d54298">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R352de01f9863455c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rea673f89a07e4ff0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rf22c0cdad201410e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R3a49b80fd8784cf7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R19fbbc50b8eb434f">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rd87530e7171f4318">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0751d6c8c2d54298">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0ad86358be1b4b4c">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rea673f89a07e4ff0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc9c3cb646bfb4022"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R3a49b80fd8784cf7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R71979fc56b674539"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rd87530e7171f4318">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Re914a5ad639e495c">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0ad86358be1b4b4c">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rdbb8509b59064b24">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc9c3cb646bfb4022"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rae952e67a9044643"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R71979fc56b674539"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Reca8afde674545b1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Re914a5ad639e495c">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R59f51dc95792451a">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rdbb8509b59064b24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rf418390caffe4b45">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rae952e67a9044643"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0410037c004a4ce6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Reca8afde674545b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rb619129ade834b37"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R59f51dc95792451a">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R1b9d4bf74f77454c">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rf418390caffe4b45">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R12db6ee8e15644b5">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0410037c004a4ce6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1561dbfe0aec4764"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rb619129ade834b37"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R3a7c401d9c4c4128"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R1b9d4bf74f77454c">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0f91b99795234faf">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R12db6ee8e15644b5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rb4a13e56c7124862">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1561dbfe0aec4764"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R50d083f28bf54da5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R3a7c401d9c4c4128"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R75cd5e1fefc342a0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0f91b99795234faf">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R15c0de0beec74c5d">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rb4a13e56c7124862">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R898263368a1243d9">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R50d083f28bf54da5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R13cd3f12e2fa4257"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R75cd5e1fefc342a0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Ra125600a2ca34167"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R15c0de0beec74c5d">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rc0a7813408b047d0">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R898263368a1243d9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R295f6e9c0d0e499a">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R13cd3f12e2fa4257"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc124e6c0ad5f4beb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Ra125600a2ca34167"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rec2523c9fd11469f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rc0a7813408b047d0">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rc175102fa8774c66">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R295f6e9c0d0e499a">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Refcc1b726fca4243">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc124e6c0ad5f4beb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc093ba0a6e0d47a5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rec2523c9fd11469f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R4128861179c643ac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rc175102fa8774c66">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R60a654cc140a4baf">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Refcc1b726fca4243">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R24e8deff35ed4a73">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc093ba0a6e0d47a5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04a904264d70411a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R4128861179c643ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R7b4130cada874f42"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R60a654cc140a4baf">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R485aa05ce3cc4f85">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R24e8deff35ed4a73">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R04be20dea5414869">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04a904264d70411a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re50f89271f1646c3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R7b4130cada874f42"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R8ebb5c7f4b2e4e3b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R485aa05ce3cc4f85">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rb115a61bb22547f6">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R04be20dea5414869">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rc2d932cfa0da4fee">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re50f89271f1646c3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0777185ebc0f4891"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R8ebb5c7f4b2e4e3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Racc0a6e35df04187"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rb115a61bb22547f6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R9940b28bf8384cf4">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rc2d932cfa0da4fee">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rb5b1d6ab7a3d442e">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0777185ebc0f4891"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R75ba883d64114fc5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Racc0a6e35df04187"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rd294265915b94e2a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R9940b28bf8384cf4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rccf72c7d108f4842">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rb5b1d6ab7a3d442e">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R3febe1d9f27148a8">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R75ba883d64114fc5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R869730bf2a744319"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rd294265915b94e2a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R6a06e6f755734231"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rccf72c7d108f4842">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Re3bf22fbe2c243df">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R3febe1d9f27148a8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R481bff9f0aee421e">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R869730bf2a744319"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0e040ca57e244553"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R6a06e6f755734231"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R8b11b33edaa04046"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Re3bf22fbe2c243df">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R5f82a4cff0784078">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R481bff9f0aee421e">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Ra1f23fb3d1b14a9f">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0e040ca57e244553"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R264e57b40fce4451"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R8b11b33edaa04046"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R3f71a7e22aea4f65"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R5f82a4cff0784078">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R052683357f374f5c">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Ra1f23fb3d1b14a9f">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R811dbe243f8f41d1">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R264e57b40fce4451"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R73491e2850764c7e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R3f71a7e22aea4f65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R1e6cd79db6534e7c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R052683357f374f5c">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0b8ba760713f49bf">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R811dbe243f8f41d1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0399905320d945c7">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R73491e2850764c7e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb5d3cfe7ff444c19"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R1e6cd79db6534e7c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R13b7ccb0daae4888"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0b8ba760713f49bf">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R8577fde790f64564">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R0399905320d945c7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R13373d012b11495d">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb5d3cfe7ff444c19"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc62264f9764b4405"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/50_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R13b7ccb0daae4888"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rf68724bc41114990"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R8577fde790f64564">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R3df1370336f24fca">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R13373d012b11495d">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R88901381a440482d">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc62264f9764b4405"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R75fe56d1293041a8"/>
 </x:worksheet>
 </file>